--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>STT</t>
   </si>
@@ -25,6 +25,42 @@
   </si>
   <si>
     <t>Sdt</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
@@ -363,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,6 +416,102 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
